--- a/HyperParameters.xlsx
+++ b/HyperParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paper Publish\CAV\DRL Comparison\Python code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA7358-6ECE-4FF4-8FCE-64449EDCC949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A816FED-53E0-4738-B431-508E8C4B0A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>DQN-2023-06-16_1</t>
+  </si>
+  <si>
+    <t>DQN-2023-06-16_2</t>
+  </si>
+  <si>
+    <t>DoubleDQN-2023-06-16_2</t>
+  </si>
+  <si>
+    <t>DoubleDQN-2023-06-16_1</t>
   </si>
 </sst>
 </file>
@@ -3728,15 +3737,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468F762F-C67E-48D8-9309-E3F8F1D10629}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -4090,7 +4099,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="3">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>2</v>
@@ -4110,6 +4119,190 @@
       <c r="T6" s="5" t="s">
         <v>89</v>
       </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2500</v>
+      </c>
+      <c r="F7" s="13">
+        <v>32</v>
+      </c>
+      <c r="G7" s="13">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>50</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <v>800000</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="2">
+        <v>8</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="D8" s="13">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="13">
+        <v>32</v>
+      </c>
+      <c r="G8" s="13">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>50</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>800000</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="2">
+        <v>8</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="13">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="13">
+        <v>32</v>
+      </c>
+      <c r="G9" s="13">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>50</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3">
+        <v>800000</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="2">
+        <v>8</v>
+      </c>
+      <c r="T9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
